--- a/Description des tables pour le TP SQL N°1.xlsx
+++ b/Description des tables pour le TP SQL N°1.xlsx
@@ -1,34 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Formation\SQL\Notebooks série 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Formation\Big Data - IMT Mines Albi\1 - SQL\2 - TPs\3 - Réponses\Notebooks série 2 - réponses\Corrigés\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97EFE99F-3D19-4304-8FD3-A70AC342D6F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B291591-48DE-4713-BE68-698DEF5C8015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15855" yWindow="690" windowWidth="22080" windowHeight="16035" activeTab="3" xr2:uid="{18FEBD3D-ED90-45C7-BD6F-1DB0A16C5BD8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="4" xr2:uid="{18FEBD3D-ED90-45C7-BD6F-1DB0A16C5BD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Table Langues" sheetId="2" r:id="rId1"/>
     <sheet name="Table Auteurs" sheetId="3" r:id="rId2"/>
     <sheet name="Table Livres" sheetId="1" r:id="rId3"/>
     <sheet name="Table Themes" sheetId="4" r:id="rId4"/>
+    <sheet name="Table RelationsLivreTheme" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="89">
   <si>
     <t>Titre</t>
   </si>
@@ -265,13 +273,43 @@
   </si>
   <si>
     <t>Totalitarisme</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>CREATE TABLE RelationsLivreTheme (</t>
+  </si>
+  <si>
+    <t>    IdRelation    INTEGER  PRIMARY KEY,</t>
+  </si>
+  <si>
+    <t>    IdLivre       INTEGER,</t>
+  </si>
+  <si>
+    <t>    IdTheme       INTEGER,</t>
+  </si>
+  <si>
+    <t>    FOREIGN KEY(IdLivre) REFERENCES Livres(IdLivre),</t>
+  </si>
+  <si>
+    <t>    FOREIGN KEY(IdTheme) REFERENCES Themes(IdTheme)</t>
+  </si>
+  <si>
+    <t>IdLivre </t>
+  </si>
+  <si>
+    <t>IdRelation</t>
+  </si>
+  <si>
+    <t>    FOREIGN KEY(IdLivre) REFERENCES Livres(IdLivre)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +337,13 @@
       <color rgb="FF212121"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -526,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -595,6 +640,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1235,7 +1290,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
-        <f t="shared" ref="B20:B30" si="0">_xlfn.CONCAT("(",K3,B3,K3,",",K3,C3,K3,",",K3,D3,K3,",",K3,E3,K3,")",",")</f>
+        <f t="shared" ref="B20:B28" si="0">_xlfn.CONCAT("(",K3,B3,K3,",",K3,C3,K3,",",K3,D3,K3,",",K3,E3,K3,")",",")</f>
         <v>("Herbert","Frank","1920","1"),</v>
       </c>
     </row>
@@ -2021,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9DD39D-99C7-4875-B0B3-76EF2C6D714E}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B15:B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2162,7 +2217,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
-        <f t="shared" ref="B16:B25" si="0">_xlfn.CONCAT("(",K3,B3,K3,")",",")</f>
+        <f t="shared" ref="B16:B24" si="0">_xlfn.CONCAT("(",K3,B3,K3,")",",")</f>
         <v>("Totalitarisme"),</v>
       </c>
     </row>
@@ -2217,4 +2272,211 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54838F5B-915A-4786-9DE6-C9E2EAC9346F}">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G12" s="25"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13" s="25"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G14" s="25"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G15" s="25"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>